--- a/scripts/report/pairs-v7.xlsx
+++ b/scripts/report/pairs-v7.xlsx
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
